--- a/artfynd/A 680-2026 artfynd.xlsx
+++ b/artfynd/A 680-2026 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1015,6 +1015,217 @@
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>131203506</v>
+      </c>
+      <c r="B5" t="n">
+        <v>91865</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>5321</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Barkticka</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Oxyporus corticola</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Fr.) Ryvarden</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>A 680, Falerum, Sm</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>571386</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6446409</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Åtvidaberg</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Gärdserum</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>131203444</v>
+      </c>
+      <c r="B6" t="n">
+        <v>92296</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>5467</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kådvaxskinn</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Phlebia serialis</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) Donk</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>A 680, Falerum, Sm</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>571394</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6446363</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Åtvidaberg</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Gärdserum</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>På gammal granlåga</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 680-2026 artfynd.xlsx
+++ b/artfynd/A 680-2026 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131193769</v>
       </c>
       <c r="B2" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
         <v>131193775</v>
       </c>
       <c r="B4" t="n">
-        <v>92462</v>
+        <v>92463</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>131203506</v>
       </c>
       <c r="B5" t="n">
-        <v>91865</v>
+        <v>91866</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>131203444</v>
       </c>
       <c r="B6" t="n">
-        <v>92296</v>
+        <v>92297</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>

--- a/artfynd/A 680-2026 artfynd.xlsx
+++ b/artfynd/A 680-2026 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131193769</v>
       </c>
       <c r="B2" t="n">
-        <v>91809</v>
+        <v>91810</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
         <v>131193775</v>
       </c>
       <c r="B4" t="n">
-        <v>92463</v>
+        <v>92464</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>131203506</v>
       </c>
       <c r="B5" t="n">
-        <v>91866</v>
+        <v>91867</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>131203444</v>
       </c>
       <c r="B6" t="n">
-        <v>92297</v>
+        <v>92298</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>

--- a/artfynd/A 680-2026 artfynd.xlsx
+++ b/artfynd/A 680-2026 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131193769</v>
       </c>
       <c r="B2" t="n">
-        <v>91810</v>
+        <v>91813</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
         <v>131193775</v>
       </c>
       <c r="B4" t="n">
-        <v>92464</v>
+        <v>92467</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>131203506</v>
       </c>
       <c r="B5" t="n">
-        <v>91867</v>
+        <v>91870</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>131203444</v>
       </c>
       <c r="B6" t="n">
-        <v>92298</v>
+        <v>92301</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
